--- a/examples/sources/data/unsolved/to_schedule/2018-12-12.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-12.xlsx
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" s="2">
         <v>43446</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="N150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O150" s="2">
         <v>43446</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N180">
         <v>1</v>
@@ -8660,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N181">
         <v>1</v>
@@ -8868,7 +8868,7 @@
         <v>1</v>
       </c>
       <c r="N186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O186" s="2">
         <v>43446</v>
